--- a/成果物/20_テーブル定義書/テーブル正規化_カレンダー.xlsx
+++ b/成果物/20_テーブル定義書/テーブル正規化_カレンダー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\グループ開発\成果物\20_テーブル定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\D-group\成果物\20_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E678A-2CB1-41BD-AD20-A93FF137DBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240C628C-1A62-4A7C-A136-2C6F3A2975AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>year</t>
     <phoneticPr fontId="1"/>
@@ -47,19 +47,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_recipe_link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>made_recipe_link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>link1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mede_recipe_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -157,7 +145,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カレンダーテーブル</t>
+    <t>post_recipeテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>made_recipeテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>made_recipe_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -527,7 +523,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -535,13 +531,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -549,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -563,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -574,33 +570,33 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -608,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>20</v>
@@ -634,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -660,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
@@ -683,7 +679,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -702,15 +698,6 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2">
@@ -728,14 +715,44 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2">
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>9</v>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
